--- a/tp7&9/tp9.xlsx
+++ b/tp7&9/tp9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valck\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valck\Desktop\EphecBac2\dev2\repoVDS\tp7&amp;9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AFEE28-E20D-40EA-AAF3-825643A1DBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2EAA66-C758-46C7-95A0-BEABF842962A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4A4CCCF8-3F77-47AA-86E8-DB2BAA157307}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="52">
   <si>
     <t>Méthode</t>
   </si>
@@ -162,16 +162,52 @@
   </si>
   <si>
     <t>-13/2</t>
+  </si>
+  <si>
+    <t>Instance de Fraction 1/-1</t>
+  </si>
+  <si>
+    <t>2/1</t>
+  </si>
+  <si>
+    <t>-1/1</t>
+  </si>
+  <si>
+    <t>0/4</t>
+  </si>
+  <si>
+    <t>0/10</t>
+  </si>
+  <si>
+    <t>0/58</t>
+  </si>
+  <si>
+    <t>2/2</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>-2/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -257,24 +293,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -289,20 +314,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -312,18 +326,97 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,91 +424,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -752,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DD591B-E7BA-463C-AEB8-1BE7CF4000CB}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,22 +841,22 @@
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1"/>
@@ -788,17 +866,17 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -806,19 +884,19 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1"/>
@@ -828,19 +906,17 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="C4" s="17">
-        <v>2</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="31" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1"/>
@@ -850,17 +926,19 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1"/>
@@ -870,19 +948,17 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="17">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="31" t="s">
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1"/>
@@ -892,17 +968,21 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -910,19 +990,17 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17">
-        <v>1</v>
-      </c>
-      <c r="C8" s="17">
-        <v>2</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>11</v>
-      </c>
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -930,17 +1008,17 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17">
-        <v>400</v>
-      </c>
-      <c r="C9" s="17">
-        <v>200</v>
-      </c>
-      <c r="D9" s="22">
+      <c r="A9" s="11"/>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="D9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="1"/>
@@ -950,17 +1028,17 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="A10" s="11"/>
+      <c r="B10" s="2">
+        <v>400</v>
+      </c>
+      <c r="C10" s="2">
+        <v>200</v>
+      </c>
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="22">
-        <v>0</v>
-      </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1"/>
@@ -970,17 +1048,17 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17">
-        <v>-2</v>
-      </c>
-      <c r="C11" s="17">
+      <c r="A11" s="11"/>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="22">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="31" t="s">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1"/>
@@ -990,17 +1068,17 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="17">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2">
         <v>-2</v>
       </c>
-      <c r="C12" s="17">
-        <v>-2</v>
-      </c>
-      <c r="D12" s="22">
-        <v>1</v>
-      </c>
-      <c r="E12" s="31" t="s">
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1"/>
@@ -1010,19 +1088,17 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="17">
-        <v>7</v>
-      </c>
-      <c r="C13" s="17">
-        <v>3</v>
-      </c>
-      <c r="D13" s="24">
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E13" s="31" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="1"/>
@@ -1032,17 +1108,17 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17">
-        <v>4</v>
-      </c>
-      <c r="C14" s="17">
-        <v>2</v>
-      </c>
-      <c r="D14" s="17">
-        <v>2</v>
-      </c>
-      <c r="E14" s="31" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="1"/>
@@ -1052,17 +1128,17 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17">
-        <v>30</v>
-      </c>
-      <c r="C15" s="17">
-        <v>40</v>
-      </c>
-      <c r="D15" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="E15" s="31" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="1"/>
@@ -1072,18 +1148,17 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="17">
-        <v>-30</v>
-      </c>
-      <c r="C16" s="17">
-        <v>40</v>
-      </c>
-      <c r="D16" s="21">
-        <f>-3/4</f>
-        <v>-0.75</v>
-      </c>
-      <c r="E16" s="31" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="1"/>
@@ -1093,17 +1168,19 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-2</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1111,17 +1188,19 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="C18" s="21">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D18" s="21">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E18" s="31" t="s">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="1"/>
@@ -1131,17 +1210,17 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="C19" s="21">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D19" s="21">
-        <v>-0.16666666666666666</v>
-      </c>
-      <c r="E19" s="31" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="1"/>
@@ -1151,17 +1230,17 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="C20" s="21">
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="D20" s="21">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E20" s="31" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="2">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="1"/>
@@ -1171,17 +1250,18 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="C21" s="21">
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="D21" s="21">
-        <v>-0.83333333333333337</v>
-      </c>
-      <c r="E21" s="31" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="2">
+        <v>-30</v>
+      </c>
+      <c r="C21" s="2">
+        <v>40</v>
+      </c>
+      <c r="D21" s="3">
+        <f>-3/4</f>
+        <v>-0.75</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="1"/>
@@ -1191,17 +1271,19 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1209,17 +1291,17 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="C23" s="21">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D23" s="21">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E23" s="31" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="1"/>
@@ -1229,17 +1311,17 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="C24" s="21">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D24" s="21">
-        <v>-0.83333333333333337</v>
-      </c>
-      <c r="E24" s="31" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="1"/>
@@ -1249,17 +1331,17 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="C25" s="21">
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E25" s="31" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="1"/>
@@ -1269,19 +1351,17 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="C26" s="21">
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="D26" s="21">
-        <v>-0.16666666666666666</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>11</v>
-      </c>
+      <c r="A26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1289,17 +1369,19 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1307,17 +1389,17 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C28" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="31" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-0.16666666666666666</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="1"/>
@@ -1327,17 +1409,17 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21">
-        <v>-0.66666666666666663</v>
-      </c>
-      <c r="C29" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="D29" s="21">
-        <v>-0.5</v>
-      </c>
-      <c r="E29" s="31" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="3">
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="1"/>
@@ -1347,17 +1429,17 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C30" s="21">
-        <v>-0.75</v>
-      </c>
-      <c r="D30" s="21">
+      <c r="A30" s="11"/>
+      <c r="B30" s="3">
         <v>-0.5</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="C30" s="3">
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-0.83333333333333337</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="1"/>
@@ -1367,17 +1449,17 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="21">
-        <v>-0.66666666666666663</v>
-      </c>
-      <c r="C31" s="21">
-        <v>-0.75</v>
-      </c>
-      <c r="D31" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="E31" s="31" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="1"/>
@@ -1387,17 +1469,19 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1405,17 +1489,17 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C33" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="E33" s="31" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="1"/>
@@ -1425,17 +1509,17 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="5">
-        <v>-0.66666666666666663</v>
-      </c>
-      <c r="C34" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="D34" s="5">
-        <v>-0.88888888888888884</v>
-      </c>
-      <c r="E34" s="31" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="1"/>
@@ -1445,602 +1529,1149 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="5">
+      <c r="A35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-0.83333333333333337</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-0.16666666666666666</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C41" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="3">
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C43" s="3">
         <v>-0.75</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D43" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="3">
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="C44" s="3">
+        <v>-0.75</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="3">
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="3">
         <v>-0.88888888888888884</v>
       </c>
-      <c r="E35" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="5">
+      <c r="E47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C48" s="3">
+        <v>-0.75</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-0.88888888888888884</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="3">
         <v>-0.66666666666666663</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C49" s="3">
         <v>-0.75</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D49" s="3">
         <v>0.88888888888888884</v>
       </c>
-      <c r="E36" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="5">
+      <c r="E49" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="3">
         <v>0.5</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C50" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="E50" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B54" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C54" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="5">
+      <c r="D54" s="7"/>
+      <c r="E54" s="21"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C55" s="2">
         <v>2</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D55" s="3">
         <v>0.1111111111111111</v>
       </c>
-      <c r="E39" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="5">
+      <c r="E55" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C56" s="2">
         <v>0</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D56" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="5">
+      <c r="E56" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="3">
         <v>-0.33333333333333331</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C57" s="2">
         <v>2</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D57" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="5">
+      <c r="E57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="3">
         <v>-0.33333333333333331</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C58" s="2">
         <v>0</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D58" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="E58" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B59" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C59" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="5">
+      <c r="D59" s="7"/>
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C60" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D60" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="5">
+      <c r="E60" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C61" s="3">
         <v>0.75</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="5">
+      <c r="E61" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="3">
         <v>-0.66666666666666663</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C62" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D62" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="5">
+      <c r="E62" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="3">
         <v>-0.66666666666666663</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C63" s="3">
         <v>0.75</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D63" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="E63" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="2">
+      <c r="D68" s="7"/>
+      <c r="E68" s="21"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="2">
         <v>1</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C69" s="2">
         <v>2</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D69" s="2">
         <v>0.5</v>
       </c>
-      <c r="E49" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="2">
+      <c r="E69" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="2">
         <v>-1</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C70" s="2">
         <v>2</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D70" s="2">
         <v>0.5</v>
       </c>
-      <c r="E50" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="E70" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C71" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="2">
+      <c r="D71" s="7"/>
+      <c r="E71" s="21"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="2">
         <v>0</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C72" s="2">
         <v>3</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="2">
+      <c r="E72" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="2">
         <v>3</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C73" s="2">
         <v>4</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="2">
+      <c r="E73" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="2">
         <v>-3</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C74" s="2">
         <v>4</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="E74" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C75" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="2">
+      <c r="D75" s="7"/>
+      <c r="E75" s="21"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="2">
         <v>2</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C76" s="2">
         <v>1</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="2">
+      <c r="E76" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="2">
         <v>3</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C77" s="2">
         <v>4</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="2">
+      <c r="E77" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="2">
         <v>-2</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C78" s="2">
         <v>1</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="E78" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>3</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="2">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="14">
+        <v>-1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B83" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C83" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="2">
+      <c r="D83" s="7"/>
+      <c r="E83" s="21"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="2">
         <v>3</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C84" s="2">
         <v>4</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="2">
+      <c r="E84" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="2">
         <v>4</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C85" s="2">
         <v>2</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E61" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="2">
+      <c r="E85" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="2">
         <v>-3</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C86" s="2">
         <v>4</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="E86" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="2">
+        <v>-4</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C92" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="2">
+      <c r="D92" s="7"/>
+      <c r="E92" s="21"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="2">
         <v>1</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C93" s="2">
         <v>4</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="2">
+      <c r="E93" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="2">
         <v>3</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C94" s="2">
         <v>4</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E66" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="2">
+      <c r="E94" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="2">
         <v>-1</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C95" s="2">
         <v>4</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="2">
+      <c r="E95" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
+      <c r="B96" s="2">
         <v>-3</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C96" s="2">
         <v>4</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="E96" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B97" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C97" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="5">
+      <c r="D97" s="7"/>
+      <c r="E97" s="21"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="3">
         <v>0.5</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C98" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="5">
+      <c r="E98" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="3">
         <v>0.5</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C99" s="3">
         <v>0.25</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="30" t="s">
+      <c r="E99" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C100" s="3">
         <v>0.25</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="5">
+      <c r="E100" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
+      <c r="B101" s="3">
         <v>-0.66666666666666663</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C101" s="3">
         <v>-0.75</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="31" t="s">
+      <c r="E101" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
+      <c r="B103" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
+      <c r="B104" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="12"/>
+      <c r="B105" s="13">
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" s="10" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A13:A16"/>
+  <mergeCells count="31">
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A40:A44"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="A75:A82"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A97:A105"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
